--- a/banco_hengst_2013.xlsx
+++ b/banco_hengst_2013.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyProj\mercos_importacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9594B7-BAAA-4F1B-BAFC-26A8AA56B874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDDAF2-A2A3-481E-83B7-0E16E1260838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="45" windowWidth="12480" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16305" yWindow="45" windowWidth="12435" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="6" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>3</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>3</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>3</v>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -7452,7 +7452,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -7655,7 +7655,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>3</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -8206,7 +8206,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B248">
         <v>3</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -8380,7 +8380,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B252">
         <v>3</v>
@@ -8409,7 +8409,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B260">
         <v>3</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -8699,7 +8699,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -8902,7 +8902,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -9047,7 +9047,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -9076,7 +9076,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -9105,7 +9105,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -9250,7 +9250,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -9424,7 +9424,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -9540,7 +9540,7 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -9627,7 +9627,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -9685,7 +9685,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B297">
         <v>3</v>
@@ -9714,7 +9714,7 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -9743,7 +9743,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -9830,7 +9830,7 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -9888,7 +9888,7 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -10033,7 +10033,7 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -10091,7 +10091,7 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -10149,7 +10149,7 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B314">
         <v>3</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -10323,7 +10323,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -10352,7 +10352,7 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B321">
         <v>3</v>
@@ -10410,7 +10410,7 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -10468,7 +10468,7 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -10497,7 +10497,7 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -10526,7 +10526,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -10671,7 +10671,7 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -10700,7 +10700,7 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -10729,7 +10729,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -10758,7 +10758,7 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -10816,7 +10816,7 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -10874,7 +10874,7 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -10932,7 +10932,7 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -11019,7 +11019,7 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -11048,7 +11048,7 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -11077,7 +11077,7 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -11106,7 +11106,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -11164,7 +11164,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -11222,7 +11222,7 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -11251,7 +11251,7 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -11280,7 +11280,7 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -11309,7 +11309,7 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -11338,7 +11338,7 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -11367,7 +11367,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -11425,7 +11425,7 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -11454,7 +11454,7 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -11512,7 +11512,7 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B360">
         <v>3</v>
@@ -11541,7 +11541,7 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -11570,7 +11570,7 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -11599,7 +11599,7 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -11628,7 +11628,7 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -11657,7 +11657,7 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -11686,7 +11686,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -11715,7 +11715,7 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -11802,7 +11802,7 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B371">
         <v>3</v>
@@ -11860,7 +11860,7 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -11918,7 +11918,7 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -11976,7 +11976,7 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -12034,7 +12034,7 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -12063,7 +12063,7 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -12121,7 +12121,7 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -12208,7 +12208,7 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -12266,7 +12266,7 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -12324,7 +12324,7 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -12382,7 +12382,7 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B390">
         <v>3</v>
@@ -12411,7 +12411,7 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -12440,7 +12440,7 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -12469,7 +12469,7 @@
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -12498,7 +12498,7 @@
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -12614,7 +12614,7 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -12672,7 +12672,7 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -12701,7 +12701,7 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -12730,7 +12730,7 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -12788,7 +12788,7 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -12817,7 +12817,7 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -12846,7 +12846,7 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -12875,7 +12875,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B409">
         <v>3</v>
@@ -12962,7 +12962,7 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B411">
         <v>3</v>
